--- a/biology/Zoologie/Encyocrypta_kone/Encyocrypta_kone.xlsx
+++ b/biology/Zoologie/Encyocrypta_kone/Encyocrypta_kone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta kone est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta kone est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre vers Koné[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre vers Koné.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 19 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 19 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Koné.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
